--- a/models/Multi_dimentional_data_covar/16_Kompetenz_Soziales_1.xlsx
+++ b/models/Multi_dimentional_data_covar/16_Kompetenz_Soziales_1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -46,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">Parteikompetenz: Sozialpolitik </t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -117,14 +125,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -132,23 +140,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -199,7 +207,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,22 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
@@ -523,7 +531,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" s="4" customFormat="1">
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -533,7 +541,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -541,12 +549,12 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="20" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
@@ -558,7 +566,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="12.75" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -568,7 +576,10 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -591,10 +602,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="7">
         <v>39843</v>
       </c>
@@ -620,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="7">
         <v>39857</v>
       </c>
@@ -646,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="7">
         <v>39878</v>
       </c>
@@ -672,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="7">
         <v>39899</v>
       </c>
@@ -698,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="7">
         <v>39927</v>
       </c>
@@ -724,7 +735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="7">
         <v>39941</v>
       </c>
@@ -750,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="7">
         <v>39962</v>
       </c>
@@ -776,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="7">
         <v>39976</v>
       </c>
@@ -802,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="7">
         <v>39997</v>
       </c>
@@ -828,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="7">
         <v>40018</v>
       </c>
@@ -854,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="7">
         <v>40032</v>
       </c>
@@ -880,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="7">
         <v>40046</v>
       </c>
@@ -906,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="7">
         <v>40053</v>
       </c>
@@ -932,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="7">
         <v>40060</v>
       </c>
@@ -958,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="7">
         <v>40067</v>
       </c>
@@ -984,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="7">
         <v>40074</v>
       </c>
@@ -1010,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="7">
         <v>40088</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9">
       <c r="B27" s="7">
         <v>40102</v>
       </c>
@@ -1062,7 +1073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="7">
         <v>40116</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="7">
         <v>40144</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="7">
         <v>40158</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="7">
         <v>40193</v>
       </c>
@@ -1166,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="7">
         <v>40207</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" s="7">
         <v>40235</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34" s="7">
         <v>40249</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9">
       <c r="B35" s="7">
         <v>40263</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9">
       <c r="B36" s="7">
         <v>40291</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9">
       <c r="B37" s="7">
         <v>40319</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9">
       <c r="B38" s="7">
         <v>40333</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9">
       <c r="B39" s="7">
         <v>40375</v>
       </c>
@@ -1374,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9">
       <c r="B40" s="7">
         <v>40417</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9">
       <c r="B41" s="7">
         <v>40431</v>
       </c>
@@ -1426,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9">
       <c r="B42" s="7">
         <v>40452</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9">
       <c r="B43" s="7">
         <v>40473</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9">
       <c r="B44" s="7">
         <v>40494</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9">
       <c r="B45" s="7">
         <v>40515</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9">
       <c r="B46" s="7">
         <v>40571</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9">
       <c r="B47" s="7">
         <v>40599</v>
       </c>
@@ -1582,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9">
       <c r="B48" s="7">
         <v>40634</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="7">
         <v>40648</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="7">
         <v>40690</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="7">
         <v>40739</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="7">
         <v>40795</v>
       </c>
@@ -1712,7 +1723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="7">
         <v>40830</v>
       </c>
@@ -1738,7 +1749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="7">
         <v>40858</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="7">
         <v>40893</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="7">
         <v>40935</v>
       </c>
@@ -1816,7 +1827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7">
         <v>40977</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="7">
         <v>41026</v>
       </c>
@@ -1868,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="7">
         <v>41054</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="7">
         <v>41103</v>
       </c>
@@ -1920,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" s="6" customFormat="1">
       <c r="B61" s="7">
         <v>41166</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="9">
         <v>41193</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="9">
         <v>41229</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="13">
         <v>41257</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="13">
         <v>41299</v>
       </c>
@@ -2050,7 +2061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9">
       <c r="B66" s="13">
         <v>41341</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9">
       <c r="B67" s="13">
         <v>41411</v>
       </c>
@@ -2102,7 +2113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9">
       <c r="B68" s="13">
         <v>41502</v>
       </c>
@@ -2128,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9">
       <c r="B69" s="13">
         <v>41544</v>
       </c>
@@ -2154,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9">
       <c r="B70" s="13">
         <v>41565</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9">
       <c r="B71" s="13">
         <v>41586</v>
       </c>
@@ -2206,7 +2217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9">
       <c r="B72" s="13">
         <v>41670</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9">
       <c r="B73" s="1">
         <v>41726</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9">
       <c r="B74" s="13">
         <v>41838</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9">
       <c r="B75" s="13">
         <v>41908</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9">
       <c r="B76" s="13">
         <v>41971</v>
       </c>
@@ -2336,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9">
       <c r="B77" s="13">
         <v>42034</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9">
       <c r="B78" s="13">
         <v>42146</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9">
       <c r="B79" s="13">
         <v>42209</v>
       </c>
@@ -2408,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9">
       <c r="B80" s="7">
         <v>42272</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9">
       <c r="B81" s="13">
         <v>42335</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9">
       <c r="B82" s="13">
         <v>42384</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9">
       <c r="B83" s="13">
         <v>42447</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9">
       <c r="B84" s="13">
         <v>42524</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9">
       <c r="B85" s="13">
         <v>42636</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9">
       <c r="B86" s="13">
         <v>42685</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9">
       <c r="B87" s="13">
         <v>42748</v>
       </c>
@@ -2600,7 +2611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9">
       <c r="B88" s="13">
         <v>42804</v>
       </c>
@@ -2624,271 +2635,271 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2">
       <c r="B177" s="1"/>
     </row>
   </sheetData>
@@ -2900,35 +2911,50 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>